--- a/DsDotNet/src/UnitTest/UnitTest.Engine/ImportOffice/Sample/s.xlsx
+++ b/DsDotNet/src/UnitTest/UnitTest.Engine/ImportOffice/Sample/s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsA\DsDotNet\src\UnitTest\UnitTest.Engine\ImportOffice\Sample\s_23_01_31(16-54-32)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsA\DsDotNet\src\UnitTest\UnitTest.Engine\ImportOffice\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00C94F0-281B-4F31-9F18-7C3DC8AF7CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C7D5C2-F51E-44DF-A1ED-7768D7E94490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11460" xr2:uid="{7A5B1DA0-AF79-4301-89BD-324DFA534982}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A5B1DA0-AF79-4301-89BD-324DFA534982}"/>
   </bookViews>
   <sheets>
     <sheet name="s" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>Case</t>
   </si>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>mx3012</t>
+  </si>
+  <si>
+    <t>MX1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -735,7 +743,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:G33"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -804,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>

--- a/DsDotNet/src/UnitTest/UnitTest.Engine/ImportOffice/Sample/s.xlsx
+++ b/DsDotNet/src/UnitTest/UnitTest.Engine/ImportOffice/Sample/s.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsA\DsDotNet\src\UnitTest\UnitTest.Engine\ImportOffice\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsA\DsDotNet\src\UnitTest\UnitTest.Engine\ImportOffice\Sample\s_23_02_01(15-40-18)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C7D5C2-F51E-44DF-A1ED-7768D7E94490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F868A5DA-9858-4777-82F4-9AB9049435E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A5B1DA0-AF79-4301-89BD-324DFA534982}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E5D5FD4-3C8F-4641-8DEA-24960B451436}"/>
   </bookViews>
   <sheets>
     <sheet name="s" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">s!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">s!$A$1:$G$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="246">
   <si>
     <t>Case</t>
   </si>
@@ -65,19 +65,226 @@
     <t>외부주소</t>
   </si>
   <si>
-    <t>F_Pin.ADV</t>
+    <t>F0_Pin.ADV</t>
   </si>
   <si>
     <t>bool</t>
   </si>
   <si>
-    <t>F_Pin_ADV</t>
-  </si>
-  <si>
-    <t>F_Pin.RET</t>
-  </si>
-  <si>
-    <t>F_Pin_RET</t>
+    <t>F0_Pin_ADV</t>
+  </si>
+  <si>
+    <t>F0_Pin.RET</t>
+  </si>
+  <si>
+    <t>F0_Pin_RET</t>
+  </si>
+  <si>
+    <t>F10_Pin.ADV</t>
+  </si>
+  <si>
+    <t>F10_Pin_ADV</t>
+  </si>
+  <si>
+    <t>F10_Pin.RET</t>
+  </si>
+  <si>
+    <t>F10_Pin_RET</t>
+  </si>
+  <si>
+    <t>F11_PinGroup1.ADV</t>
+  </si>
+  <si>
+    <t>F11_PinGroup_ADV</t>
+  </si>
+  <si>
+    <t>F11_PinGroup2.ADV</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>F11_PinGroup1.RET</t>
+  </si>
+  <si>
+    <t>F11_PinGroup_RET</t>
+  </si>
+  <si>
+    <t>F11_PinGroup2.RET</t>
+  </si>
+  <si>
+    <t>F11_Pin.ADV</t>
+  </si>
+  <si>
+    <t>F11_Pin_ADV</t>
+  </si>
+  <si>
+    <t>F11_Pin.RET</t>
+  </si>
+  <si>
+    <t>F11_Pin_RET</t>
+  </si>
+  <si>
+    <t>S101_Pin2.ADV</t>
+  </si>
+  <si>
+    <t>S101_Pin2_ADV</t>
+  </si>
+  <si>
+    <t>S101_Pin2.RET</t>
+  </si>
+  <si>
+    <t>S101_Pin2_RET</t>
+  </si>
+  <si>
+    <t>S101_Pin.ADV</t>
+  </si>
+  <si>
+    <t>S101_Pin_ADV</t>
+  </si>
+  <si>
+    <t>S101_Pin.RET</t>
+  </si>
+  <si>
+    <t>S101_Pin_RET</t>
+  </si>
+  <si>
+    <t>S101_Rbt1.Home</t>
+  </si>
+  <si>
+    <t>S101_Rbt1_Home</t>
+  </si>
+  <si>
+    <t>S101_Rbt1.Reset</t>
+  </si>
+  <si>
+    <t>S101_Rbt1_Reset</t>
+  </si>
+  <si>
+    <t>S101_Rbt1.Weld</t>
+  </si>
+  <si>
+    <t>S101_Rbt1_Weld</t>
+  </si>
+  <si>
+    <t>S102_Pin.ADV</t>
+  </si>
+  <si>
+    <t>S102_Pin_ADV</t>
+  </si>
+  <si>
+    <t>S102_Pin.RET</t>
+  </si>
+  <si>
+    <t>S102_Pin_RET</t>
+  </si>
+  <si>
+    <t>S102_Rbt1.Home</t>
+  </si>
+  <si>
+    <t>S102_Rbt1_Home</t>
+  </si>
+  <si>
+    <t>S102_Rbt1.Reset</t>
+  </si>
+  <si>
+    <t>S102_Rbt1_Reset</t>
+  </si>
+  <si>
+    <t>S102_Rbt1.Weld</t>
+  </si>
+  <si>
+    <t>S102_Rbt1_Weld</t>
+  </si>
+  <si>
+    <t>S2_Copy1.ADV</t>
+  </si>
+  <si>
+    <t>S2_Copy1_ADV</t>
+  </si>
+  <si>
+    <t>S2_Copy1.RET</t>
+  </si>
+  <si>
+    <t>S2_Copy1_RET</t>
+  </si>
+  <si>
+    <t>S2_Copy2.ADV</t>
+  </si>
+  <si>
+    <t>S2_Copy2_ADV</t>
+  </si>
+  <si>
+    <t>S2_Copy2.RET</t>
+  </si>
+  <si>
+    <t>S2_Copy2_RET</t>
+  </si>
+  <si>
+    <t>S3_Job1.Func1</t>
+  </si>
+  <si>
+    <t>S3_Job_Func1</t>
+  </si>
+  <si>
+    <t>S3_Job2.Func1</t>
+  </si>
+  <si>
+    <t>S3_Job3.Func1</t>
+  </si>
+  <si>
+    <t>S3_Job4.Func1</t>
+  </si>
+  <si>
+    <t>S3_Job5.Func1</t>
+  </si>
+  <si>
+    <t>S3_Job1.Func2</t>
+  </si>
+  <si>
+    <t>S3_Job_Func2</t>
+  </si>
+  <si>
+    <t>S3_Job2.Func2</t>
+  </si>
+  <si>
+    <t>S3_Job3.Func2</t>
+  </si>
+  <si>
+    <t>S3_Job4.Func2</t>
+  </si>
+  <si>
+    <t>S3_Job5.Func2</t>
+  </si>
+  <si>
+    <t>S4_rbt.Home</t>
+  </si>
+  <si>
+    <t>S4_rbt_Home</t>
+  </si>
+  <si>
+    <t>S4_rbt.Reset</t>
+  </si>
+  <si>
+    <t>S4_rbt_Reset</t>
+  </si>
+  <si>
+    <t>S4_rbt.Weld</t>
+  </si>
+  <si>
+    <t>S4_rbt_Weld</t>
+  </si>
+  <si>
+    <t>T1_Pin.ADV</t>
+  </si>
+  <si>
+    <t>T1_Pin_ADV</t>
+  </si>
+  <si>
+    <t>T1_Pin.RET</t>
+  </si>
+  <si>
+    <t>T1_Pin_RET</t>
   </si>
   <si>
     <t>-</t>
@@ -200,81 +407,283 @@
     <t>emgLamp1</t>
   </si>
   <si>
+    <t>준비조건</t>
+  </si>
+  <si>
+    <t>airOn1</t>
+  </si>
+  <si>
+    <t>airOn2</t>
+  </si>
+  <si>
+    <t>운전조건</t>
+  </si>
+  <si>
+    <t>leakOn</t>
+  </si>
+  <si>
+    <t>waterLowErr</t>
+  </si>
+  <si>
     <t>내부변수</t>
   </si>
   <si>
-    <t>MX0</t>
+    <t>mx1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MX2</t>
+    <t>mx1001</t>
+  </si>
+  <si>
+    <t>mx1002</t>
+  </si>
+  <si>
+    <t>mx1003</t>
+  </si>
+  <si>
+    <t>mx1004</t>
+  </si>
+  <si>
+    <t>mx1005</t>
+  </si>
+  <si>
+    <t>mx1006</t>
+  </si>
+  <si>
+    <t>mx1007</t>
+  </si>
+  <si>
+    <t>mx1008</t>
+  </si>
+  <si>
+    <t>mx1009</t>
+  </si>
+  <si>
+    <t>mx1010</t>
+  </si>
+  <si>
+    <t>mx1011</t>
+  </si>
+  <si>
+    <t>mx1012</t>
+  </si>
+  <si>
+    <t>mx1013</t>
+  </si>
+  <si>
+    <t>mx1014</t>
+  </si>
+  <si>
+    <t>mx1015</t>
+  </si>
+  <si>
+    <t>mx1016</t>
+  </si>
+  <si>
+    <t>mx1017</t>
+  </si>
+  <si>
+    <t>mx1018</t>
+  </si>
+  <si>
+    <t>mx1019</t>
+  </si>
+  <si>
+    <t>mx1020</t>
+  </si>
+  <si>
+    <t>mx1021</t>
+  </si>
+  <si>
+    <t>mx1022</t>
+  </si>
+  <si>
+    <t>mx1023</t>
+  </si>
+  <si>
+    <t>mx1024</t>
+  </si>
+  <si>
+    <t>mx1025</t>
+  </si>
+  <si>
+    <t>mx1026</t>
+  </si>
+  <si>
+    <t>mx1027</t>
+  </si>
+  <si>
+    <t>mx1028</t>
+  </si>
+  <si>
+    <t>mx1029</t>
+  </si>
+  <si>
+    <t>mx1030</t>
+  </si>
+  <si>
+    <t>mx1031</t>
+  </si>
+  <si>
+    <t>mx1032</t>
+  </si>
+  <si>
+    <t>mx1033</t>
+  </si>
+  <si>
+    <t>mx1034</t>
+  </si>
+  <si>
+    <t>mx1035</t>
+  </si>
+  <si>
+    <t>mx1036</t>
+  </si>
+  <si>
+    <t>mx1037</t>
+  </si>
+  <si>
+    <t>mx1038</t>
+  </si>
+  <si>
+    <t>mx1039</t>
+  </si>
+  <si>
+    <t>mx1040</t>
+  </si>
+  <si>
+    <t>mx2000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MX1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MX2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MX1001</t>
-  </si>
-  <si>
-    <t>MX2001</t>
-  </si>
-  <si>
-    <t>MX1002</t>
-  </si>
-  <si>
-    <t>MX2002</t>
-  </si>
-  <si>
-    <t>MX1003</t>
-  </si>
-  <si>
-    <t>MX2003</t>
-  </si>
-  <si>
-    <t>MX1004</t>
-  </si>
-  <si>
-    <t>MX2004</t>
-  </si>
-  <si>
-    <t>abffptld</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MX1005</t>
-  </si>
-  <si>
-    <t>MX2005</t>
-  </si>
-  <si>
-    <t>MX1006</t>
-  </si>
-  <si>
-    <t>MX2006</t>
-  </si>
-  <si>
-    <t>MX1007</t>
-  </si>
-  <si>
-    <t>MX2007</t>
-  </si>
-  <si>
-    <t>MX1008</t>
-  </si>
-  <si>
-    <t>MX2008</t>
+    <t>mx2001</t>
+  </si>
+  <si>
+    <t>mx2002</t>
+  </si>
+  <si>
+    <t>mx2003</t>
+  </si>
+  <si>
+    <t>mx2004</t>
+  </si>
+  <si>
+    <t>mx2005</t>
+  </si>
+  <si>
+    <t>mx2006</t>
+  </si>
+  <si>
+    <t>mx2007</t>
+  </si>
+  <si>
+    <t>mx2008</t>
+  </si>
+  <si>
+    <t>mx2009</t>
+  </si>
+  <si>
+    <t>mx2010</t>
+  </si>
+  <si>
+    <t>mx2011</t>
+  </si>
+  <si>
+    <t>mx2012</t>
+  </si>
+  <si>
+    <t>mx2013</t>
+  </si>
+  <si>
+    <t>mx2014</t>
+  </si>
+  <si>
+    <t>mx2015</t>
+  </si>
+  <si>
+    <t>mx2016</t>
+  </si>
+  <si>
+    <t>mx2017</t>
+  </si>
+  <si>
+    <t>mx2018</t>
+  </si>
+  <si>
+    <t>mx2019</t>
+  </si>
+  <si>
+    <t>mx2020</t>
+  </si>
+  <si>
+    <t>mx2021</t>
+  </si>
+  <si>
+    <t>mx2022</t>
+  </si>
+  <si>
+    <t>mx2023</t>
+  </si>
+  <si>
+    <t>mx2024</t>
+  </si>
+  <si>
+    <t>mx2025</t>
+  </si>
+  <si>
+    <t>mx2026</t>
+  </si>
+  <si>
+    <t>mx2027</t>
+  </si>
+  <si>
+    <t>mx2028</t>
+  </si>
+  <si>
+    <t>mx2029</t>
+  </si>
+  <si>
+    <t>mx2030</t>
+  </si>
+  <si>
+    <t>mx2031</t>
+  </si>
+  <si>
+    <t>mx2032</t>
+  </si>
+  <si>
+    <t>mx2033</t>
+  </si>
+  <si>
+    <t>mx2034</t>
+  </si>
+  <si>
+    <t>mx2035</t>
+  </si>
+  <si>
+    <t>mx2036</t>
+  </si>
+  <si>
+    <t>mx2037</t>
+  </si>
+  <si>
+    <t>mx2038</t>
+  </si>
+  <si>
+    <t>mx2039</t>
+  </si>
+  <si>
+    <t>mx2040</t>
   </si>
   <si>
     <t>mx3000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>mx4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>mx3001</t>
   </si>
   <si>
@@ -299,24 +708,81 @@
     <t>mx3008</t>
   </si>
   <si>
-    <t>mx3009</t>
-  </si>
-  <si>
-    <t>mx3010</t>
-  </si>
-  <si>
-    <t>mx3011</t>
-  </si>
-  <si>
-    <t>mx3012</t>
-  </si>
-  <si>
-    <t>MX1</t>
+    <t>mx4001</t>
+  </si>
+  <si>
+    <t>mx4002</t>
+  </si>
+  <si>
+    <t>mx4003</t>
+  </si>
+  <si>
+    <t>mx4004</t>
+  </si>
+  <si>
+    <t>mx4005</t>
+  </si>
+  <si>
+    <t>mx4006</t>
+  </si>
+  <si>
+    <t>mx4007</t>
+  </si>
+  <si>
+    <t>mx4008</t>
+  </si>
+  <si>
+    <t>mx5000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MX3</t>
+    <t>mx5001</t>
+  </si>
+  <si>
+    <t>mx5002</t>
+  </si>
+  <si>
+    <t>mx5003</t>
+  </si>
+  <si>
+    <t>mx5004</t>
+  </si>
+  <si>
+    <t>mx5005</t>
+  </si>
+  <si>
+    <t>mx5006</t>
+  </si>
+  <si>
+    <t>mx5007</t>
+  </si>
+  <si>
+    <t>mx5008</t>
+  </si>
+  <si>
+    <t>mx5009</t>
+  </si>
+  <si>
+    <t>mx5010</t>
+  </si>
+  <si>
+    <t>mx5011</t>
+  </si>
+  <si>
+    <t>mx5012</t>
+  </si>
+  <si>
+    <t>mx6000</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx6001</t>
+  </si>
+  <si>
+    <t>mx6002</t>
+  </si>
+  <si>
+    <t>mx6003</t>
   </si>
 </sst>
 </file>
@@ -739,21 +1205,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B87B0F-4A99-4EC8-A59B-515458359492}">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBED3565-F096-42CD-8585-78836B961CFB}">
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -791,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -812,10 +1278,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -823,649 +1289,1572 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>174</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>176</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>178</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>179</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>180</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>182</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
+      <c r="D17" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>185</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
+      <c r="D18" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>186</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
+      <c r="D19" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>187</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
+      <c r="D20" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>188</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
+      <c r="D21" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>189</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
+      <c r="D22" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>190</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
+      <c r="D23" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
+        <v>191</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
+      <c r="D24" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>192</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>13</v>
+      <c r="D25" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
+        <v>193</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
+      <c r="D26" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
+      <c r="D27" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>195</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
+      <c r="D28" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>196</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>13</v>
+      <c r="D29" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>13</v>
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>13</v>
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>13</v>
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G33" xr:uid="{33B87B0F-4A99-4EC8-A59B-515458359492}"/>
+  <autoFilter ref="A1:G76" xr:uid="{DBED3565-F096-42CD-8585-78836B961CFB}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
